--- a/changes/556-muzzles.xlsx
+++ b/changes/556-muzzles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E93652A-BAEF-471F-A82E-C76985B9FCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E917C05-9155-49CF-BF3B-CE924240FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="3615" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="556-muzzles" sheetId="1" r:id="rId1"/>
@@ -914,9 +914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -954,7 +954,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1060,7 +1060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1202,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/changes/556-muzzles.xlsx
+++ b/changes/556-muzzles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E917C05-9155-49CF-BF3B-CE924240FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B712FECA-79D6-49EA-8AF4-5EFE7DABF98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,16 +3013,16 @@
         <v>0.16</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <v>0.2</v>
       </c>
       <c r="R26">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="S26">
         <v>80</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="1"/>
-        <v>-5.1333333333333337</v>
+        <v>-6.8333333333333339</v>
       </c>
       <c r="X26">
         <f t="shared" si="2"/>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0.1</v>
       </c>
       <c r="R27">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="S27">
         <v>40</v>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="U27" s="1">
         <f t="shared" si="1"/>
-        <v>-3.1666666666666665</v>
+        <v>-3.9166666666666665</v>
       </c>
       <c r="X27">
         <f t="shared" si="2"/>
